--- a/res/가중치_10up.xlsx
+++ b/res/가중치_10up.xlsx
@@ -31,16 +31,16 @@
     <t>X</t>
   </si>
   <si>
+    <t>직장_score</t>
+  </si>
+  <si>
+    <t>의료_score</t>
+  </si>
+  <si>
+    <t>복지_score</t>
+  </si>
+  <si>
     <t>인구_score</t>
-  </si>
-  <si>
-    <t>직장_score</t>
-  </si>
-  <si>
-    <t>의료_score</t>
-  </si>
-  <si>
-    <t>복지_score</t>
   </si>
   <si>
     <t>거주_score</t>
@@ -951,16 +951,16 @@
         <v>129.0087127</v>
       </c>
       <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
         <v>2</v>
-      </c>
-      <c r="H2">
-        <v>9</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>7</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -989,16 +989,16 @@
         <v>129.0196155</v>
       </c>
       <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>2</v>
-      </c>
-      <c r="H3">
-        <v>9</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
       </c>
       <c r="K3">
         <v>4</v>
@@ -1027,16 +1027,16 @@
         <v>129.0194008</v>
       </c>
       <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>2</v>
-      </c>
-      <c r="H4">
-        <v>9</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
       </c>
       <c r="K4">
         <v>4</v>
@@ -1065,16 +1065,16 @@
         <v>129.0086527</v>
       </c>
       <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
         <v>2</v>
-      </c>
-      <c r="H5">
-        <v>9</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>6</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>129.0011825</v>
       </c>
       <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
         <v>1</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>6</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1141,16 +1141,16 @@
         <v>129.0185996</v>
       </c>
       <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
         <v>2</v>
-      </c>
-      <c r="H7">
-        <v>6</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>6</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1179,16 +1179,16 @@
         <v>129.0179787</v>
       </c>
       <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
         <v>2</v>
-      </c>
-      <c r="H8">
-        <v>6</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>6</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1217,16 +1217,16 @@
         <v>129.0178049</v>
       </c>
       <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9">
         <v>2</v>
-      </c>
-      <c r="H9">
-        <v>6</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>6</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1255,16 +1255,16 @@
         <v>129.0011875</v>
       </c>
       <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
         <v>1</v>
-      </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10">
-        <v>5</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1293,16 +1293,16 @@
         <v>129.164525</v>
       </c>
       <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>3</v>
-      </c>
-      <c r="H11">
-        <v>8</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1331,10 +1331,10 @@
         <v>129.0928292</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         <v>129.0922059</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1407,10 +1407,10 @@
         <v>129.0752956</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1445,16 +1445,16 @@
         <v>128.9741856</v>
       </c>
       <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
         <v>4</v>
-      </c>
-      <c r="H15">
-        <v>6</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1483,16 +1483,16 @@
         <v>129.0173076</v>
       </c>
       <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
         <v>2</v>
-      </c>
-      <c r="H16">
-        <v>5</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>5</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1521,16 +1521,16 @@
         <v>128.9947379</v>
       </c>
       <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
         <v>1</v>
-      </c>
-      <c r="H17">
-        <v>5</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>5</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1559,16 +1559,16 @@
         <v>128.9909335</v>
       </c>
       <c r="G18">
+        <v>8</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <v>1</v>
-      </c>
-      <c r="H18">
-        <v>8</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1597,10 +1597,10 @@
         <v>129.0925125</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>129.0853608</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1673,10 +1673,10 @@
         <v>129.0927706</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H21">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1711,10 +1711,10 @@
         <v>129.0839071</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H22">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1749,16 +1749,16 @@
         <v>128.9673816</v>
       </c>
       <c r="G23">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
         <v>4</v>
-      </c>
-      <c r="H23">
-        <v>6</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1787,16 +1787,16 @@
         <v>128.9673871</v>
       </c>
       <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
         <v>4</v>
-      </c>
-      <c r="H24">
-        <v>6</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1825,16 +1825,16 @@
         <v>128.9907053</v>
       </c>
       <c r="G25">
+        <v>7</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
         <v>1</v>
-      </c>
-      <c r="H25">
-        <v>7</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1863,10 +1863,10 @@
         <v>129.102344</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H26">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1901,10 +1901,10 @@
         <v>129.0909533</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H27">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1942,13 +1942,13 @@
         <v>5</v>
       </c>
       <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
         <v>5</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1980,13 +1980,13 @@
         <v>5</v>
       </c>
       <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
         <v>5</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -2018,13 +2018,13 @@
         <v>5</v>
       </c>
       <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
         <v>5</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>129.0242581</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H31">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2091,10 +2091,10 @@
         <v>129.0911899</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H32">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>128.9637595</v>
       </c>
       <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
         <v>4</v>
-      </c>
-      <c r="H33">
-        <v>5</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -2167,16 +2167,16 @@
         <v>129.0160167</v>
       </c>
       <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34">
         <v>2</v>
-      </c>
-      <c r="H34">
-        <v>4</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>3</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>129.0160989</v>
       </c>
       <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
         <v>2</v>
-      </c>
-      <c r="H35">
-        <v>4</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>3</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -2243,16 +2243,16 @@
         <v>128.964507</v>
       </c>
       <c r="G36">
+        <v>5</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
         <v>4</v>
-      </c>
-      <c r="H36">
-        <v>5</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -2281,16 +2281,16 @@
         <v>128.9741339</v>
       </c>
       <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
         <v>4</v>
-      </c>
-      <c r="H37">
-        <v>5</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -2319,16 +2319,16 @@
         <v>128.963989</v>
       </c>
       <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
         <v>4</v>
-      </c>
-      <c r="H38">
-        <v>5</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2357,16 +2357,16 @@
         <v>128.9949091</v>
       </c>
       <c r="G39">
+        <v>6</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
         <v>1</v>
-      </c>
-      <c r="H39">
-        <v>6</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -2395,16 +2395,16 @@
         <v>128.9947639</v>
       </c>
       <c r="G40">
+        <v>6</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
         <v>1</v>
-      </c>
-      <c r="H40">
-        <v>6</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2433,13 +2433,13 @@
         <v>129.0410323</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2471,16 +2471,16 @@
         <v>129.1632219</v>
       </c>
       <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
         <v>3</v>
-      </c>
-      <c r="H42">
-        <v>5</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -2509,13 +2509,13 @@
         <v>129.020313</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2547,10 +2547,10 @@
         <v>129.0836118</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H44">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -2585,10 +2585,10 @@
         <v>129.1033459</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H45">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -2623,16 +2623,16 @@
         <v>129.0379075</v>
       </c>
       <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
         <v>5</v>
       </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
       <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
         <v>5</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -2661,16 +2661,16 @@
         <v>129.0126867</v>
       </c>
       <c r="G47">
+        <v>5</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
         <v>2</v>
-      </c>
-      <c r="H47">
-        <v>5</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -2699,16 +2699,16 @@
         <v>129.0125924</v>
       </c>
       <c r="G48">
+        <v>5</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
         <v>2</v>
-      </c>
-      <c r="H48">
-        <v>5</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -2737,16 +2737,16 @@
         <v>129.037611</v>
       </c>
       <c r="G49">
+        <v>5</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
         <v>2</v>
-      </c>
-      <c r="H49">
-        <v>5</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -2775,16 +2775,16 @@
         <v>129.0367254</v>
       </c>
       <c r="G50">
+        <v>5</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
         <v>2</v>
-      </c>
-      <c r="H50">
-        <v>5</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -2813,16 +2813,16 @@
         <v>129.0161897</v>
       </c>
       <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+      <c r="J51">
         <v>2</v>
-      </c>
-      <c r="H51">
-        <v>3</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>3</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>4</v>
       </c>
       <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
         <v>4</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -2889,13 +2889,13 @@
         <v>129.041614</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -2927,16 +2927,16 @@
         <v>128.9955049</v>
       </c>
       <c r="G54">
+        <v>4</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54">
         <v>1</v>
-      </c>
-      <c r="H54">
-        <v>4</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>2</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -2968,13 +2968,13 @@
         <v>4</v>
       </c>
       <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
         <v>4</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>4</v>
       </c>
       <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
         <v>4</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -3044,13 +3044,13 @@
         <v>4</v>
       </c>
       <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
         <v>4</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>129.0196177</v>
       </c>
       <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>3</v>
+      </c>
+      <c r="J58">
         <v>2</v>
-      </c>
-      <c r="H58">
-        <v>3</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>3</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -3120,13 +3120,13 @@
         <v>4</v>
       </c>
       <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
         <v>4</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -3158,13 +3158,13 @@
         <v>4</v>
       </c>
       <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
         <v>4</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -3193,16 +3193,16 @@
         <v>128.9904155</v>
       </c>
       <c r="G61">
+        <v>4</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
         <v>1</v>
-      </c>
-      <c r="H61">
-        <v>4</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
       </c>
       <c r="K61">
         <v>5</v>
@@ -3231,16 +3231,16 @@
         <v>128.9898277</v>
       </c>
       <c r="G62">
+        <v>5</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
         <v>1</v>
-      </c>
-      <c r="H62">
-        <v>5</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -3269,16 +3269,16 @@
         <v>128.9896003</v>
       </c>
       <c r="G63">
+        <v>5</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
         <v>1</v>
-      </c>
-      <c r="H63">
-        <v>5</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -3307,16 +3307,16 @@
         <v>128.988722</v>
       </c>
       <c r="G64">
+        <v>5</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
         <v>1</v>
-      </c>
-      <c r="H64">
-        <v>5</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -3345,16 +3345,16 @@
         <v>128.9883521</v>
       </c>
       <c r="G65">
+        <v>5</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
         <v>1</v>
-      </c>
-      <c r="H65">
-        <v>5</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -3383,16 +3383,16 @@
         <v>128.9862184</v>
       </c>
       <c r="G66">
+        <v>5</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
         <v>1</v>
-      </c>
-      <c r="H66">
-        <v>5</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -3421,16 +3421,16 @@
         <v>128.9886762</v>
       </c>
       <c r="G67">
+        <v>5</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
         <v>1</v>
-      </c>
-      <c r="H67">
-        <v>5</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -3459,16 +3459,16 @@
         <v>129.158407</v>
       </c>
       <c r="G68">
+        <v>4</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
         <v>3</v>
-      </c>
-      <c r="H68">
-        <v>4</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -3497,16 +3497,16 @@
         <v>129.1669101</v>
       </c>
       <c r="G69">
+        <v>4</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
         <v>3</v>
-      </c>
-      <c r="H69">
-        <v>4</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -3535,10 +3535,10 @@
         <v>129.1160064</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H70">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -3573,10 +3573,10 @@
         <v>129.0465983</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H71">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -3611,16 +3611,16 @@
         <v>129.0481977</v>
       </c>
       <c r="G72">
+        <v>3</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
         <v>5</v>
-      </c>
-      <c r="H72">
-        <v>3</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -3649,10 +3649,10 @@
         <v>129.1163347</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H73">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -3687,10 +3687,10 @@
         <v>129.0910186</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H74">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -3725,10 +3725,10 @@
         <v>129.095324</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H75">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -3763,10 +3763,10 @@
         <v>129.0912888</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H76">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -3801,10 +3801,10 @@
         <v>129.0932048</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H77">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -3839,16 +3839,16 @@
         <v>129.063209</v>
       </c>
       <c r="G78">
+        <v>3</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
         <v>5</v>
-      </c>
-      <c r="H78">
-        <v>3</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -3877,10 +3877,10 @@
         <v>129.1035134</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H79">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -3915,16 +3915,16 @@
         <v>129.0347962</v>
       </c>
       <c r="G80">
+        <v>3</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
         <v>5</v>
-      </c>
-      <c r="H80">
-        <v>3</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -3953,10 +3953,10 @@
         <v>129.069405</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H81">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>129.0731009</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H82">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -4029,10 +4029,10 @@
         <v>129.0425191</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H83">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -4067,10 +4067,10 @@
         <v>129.0410562</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H84">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -4105,10 +4105,10 @@
         <v>129.113567</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H85">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -4143,16 +4143,16 @@
         <v>129.0230068</v>
       </c>
       <c r="G86">
+        <v>3</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
         <v>5</v>
-      </c>
-      <c r="H86">
-        <v>3</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -4181,10 +4181,10 @@
         <v>129.0804751</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H87">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -4219,16 +4219,16 @@
         <v>129.0610247</v>
       </c>
       <c r="G88">
+        <v>3</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
         <v>5</v>
-      </c>
-      <c r="H88">
-        <v>3</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -4257,10 +4257,10 @@
         <v>129.0811713</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H89">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -4295,10 +4295,10 @@
         <v>129.042792</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H90">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -4333,10 +4333,10 @@
         <v>129.0809051</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H91">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -4371,16 +4371,16 @@
         <v>129.0105266</v>
       </c>
       <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>4</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
         <v>2</v>
-      </c>
-      <c r="H92">
-        <v>1</v>
-      </c>
-      <c r="I92">
-        <v>4</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -4409,10 +4409,10 @@
         <v>129.0408077</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H93">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -4447,13 +4447,13 @@
         <v>129.1147874</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -4485,16 +4485,16 @@
         <v>129.0124861</v>
       </c>
       <c r="G95">
+        <v>4</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
         <v>2</v>
-      </c>
-      <c r="H95">
-        <v>4</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="J95">
-        <v>0</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -4523,16 +4523,16 @@
         <v>128.9909533</v>
       </c>
       <c r="G96">
+        <v>4</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
         <v>2</v>
-      </c>
-      <c r="H96">
-        <v>4</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -4561,16 +4561,16 @@
         <v>129.0096958</v>
       </c>
       <c r="G97">
+        <v>4</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
         <v>2</v>
-      </c>
-      <c r="H97">
-        <v>4</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -4599,16 +4599,16 @@
         <v>129.0360258</v>
       </c>
       <c r="G98">
+        <v>4</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
         <v>2</v>
-      </c>
-      <c r="H98">
-        <v>4</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-      <c r="J98">
-        <v>0</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -4637,10 +4637,10 @@
         <v>129.0202896</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -4675,16 +4675,16 @@
         <v>128.9995111</v>
       </c>
       <c r="G100">
+        <v>3</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
         <v>4</v>
-      </c>
-      <c r="H100">
-        <v>3</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="J100">
-        <v>0</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -4713,16 +4713,16 @@
         <v>128.9751842</v>
       </c>
       <c r="G101">
+        <v>3</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
         <v>4</v>
-      </c>
-      <c r="H101">
-        <v>3</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-      <c r="J101">
-        <v>0</v>
       </c>
       <c r="K101">
         <v>0</v>
@@ -4751,16 +4751,16 @@
         <v>128.9864234</v>
       </c>
       <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>5</v>
+      </c>
+      <c r="J102">
         <v>4</v>
-      </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
-      <c r="J102">
-        <v>5</v>
       </c>
       <c r="K102">
         <v>0</v>
@@ -4789,16 +4789,16 @@
         <v>128.9660687</v>
       </c>
       <c r="G103">
+        <v>3</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
         <v>4</v>
-      </c>
-      <c r="H103">
-        <v>3</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-      <c r="J103">
-        <v>0</v>
       </c>
       <c r="K103">
         <v>0</v>
@@ -4827,16 +4827,16 @@
         <v>128.973735</v>
       </c>
       <c r="G104">
+        <v>3</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>4</v>
-      </c>
-      <c r="H104">
-        <v>3</v>
-      </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
-      <c r="J104">
-        <v>0</v>
       </c>
       <c r="K104">
         <v>0</v>
@@ -4865,16 +4865,16 @@
         <v>128.9886722</v>
       </c>
       <c r="G105">
+        <v>3</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
         <v>4</v>
-      </c>
-      <c r="H105">
-        <v>3</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
-      <c r="J105">
-        <v>0</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -4903,16 +4903,16 @@
         <v>128.9857998</v>
       </c>
       <c r="G106">
+        <v>4</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
         <v>1</v>
-      </c>
-      <c r="H106">
-        <v>4</v>
-      </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-      <c r="J106">
-        <v>0</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -4941,16 +4941,16 @@
         <v>128.9917189</v>
       </c>
       <c r="G107">
+        <v>4</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
         <v>1</v>
-      </c>
-      <c r="H107">
-        <v>4</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-      <c r="J107">
-        <v>0</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -4979,16 +4979,16 @@
         <v>129.0506823</v>
       </c>
       <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>3</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
         <v>5</v>
-      </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-      <c r="I108">
-        <v>3</v>
-      </c>
-      <c r="J108">
-        <v>0</v>
       </c>
       <c r="K108">
         <v>0</v>
@@ -5017,16 +5017,16 @@
         <v>128.9898325</v>
       </c>
       <c r="G109">
+        <v>4</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
         <v>1</v>
-      </c>
-      <c r="H109">
-        <v>4</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109">
-        <v>0</v>
       </c>
       <c r="K109">
         <v>0</v>
@@ -5055,16 +5055,16 @@
         <v>129.0590126</v>
       </c>
       <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>3</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
         <v>5</v>
-      </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-      <c r="I110">
-        <v>3</v>
-      </c>
-      <c r="J110">
-        <v>0</v>
       </c>
       <c r="K110">
         <v>0</v>
@@ -5093,16 +5093,16 @@
         <v>128.9906135</v>
       </c>
       <c r="G111">
+        <v>4</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
         <v>1</v>
-      </c>
-      <c r="H111">
-        <v>4</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="J111">
-        <v>0</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -5131,13 +5131,13 @@
         <v>129.044299</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I112">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -5169,16 +5169,16 @@
         <v>128.9728608</v>
       </c>
       <c r="G113">
+        <v>4</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
         <v>1</v>
-      </c>
-      <c r="H113">
-        <v>4</v>
-      </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-      <c r="J113">
-        <v>0</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -5207,16 +5207,16 @@
         <v>128.988322</v>
       </c>
       <c r="G114">
+        <v>4</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
         <v>1</v>
-      </c>
-      <c r="H114">
-        <v>4</v>
-      </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
-      <c r="J114">
-        <v>0</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -5245,16 +5245,16 @@
         <v>129.0385907</v>
       </c>
       <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>3</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
         <v>5</v>
-      </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="I115">
-        <v>3</v>
-      </c>
-      <c r="J115">
-        <v>0</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -5283,16 +5283,16 @@
         <v>128.9728668</v>
       </c>
       <c r="G116">
+        <v>4</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
         <v>1</v>
-      </c>
-      <c r="H116">
-        <v>4</v>
-      </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
-      <c r="J116">
-        <v>0</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -5321,16 +5321,16 @@
         <v>128.9864878</v>
       </c>
       <c r="G117">
+        <v>4</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
         <v>1</v>
-      </c>
-      <c r="H117">
-        <v>4</v>
-      </c>
-      <c r="I117">
-        <v>0</v>
-      </c>
-      <c r="J117">
-        <v>0</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -5359,16 +5359,16 @@
         <v>128.9900952</v>
       </c>
       <c r="G118">
+        <v>4</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
         <v>1</v>
-      </c>
-      <c r="H118">
-        <v>4</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118">
-        <v>0</v>
       </c>
       <c r="K118">
         <v>0</v>
@@ -5400,13 +5400,13 @@
         <v>3</v>
       </c>
       <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
         <v>3</v>
-      </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
-      <c r="J119">
-        <v>0</v>
       </c>
       <c r="K119">
         <v>0</v>
@@ -5438,13 +5438,13 @@
         <v>3</v>
       </c>
       <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
         <v>3</v>
-      </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
-      <c r="J120">
-        <v>0</v>
       </c>
       <c r="K120">
         <v>0</v>
@@ -5476,13 +5476,13 @@
         <v>3</v>
       </c>
       <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
         <v>3</v>
-      </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
-      <c r="J121">
-        <v>0</v>
       </c>
       <c r="K121">
         <v>0</v>
@@ -5514,13 +5514,13 @@
         <v>3</v>
       </c>
       <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
         <v>3</v>
-      </c>
-      <c r="I122">
-        <v>0</v>
-      </c>
-      <c r="J122">
-        <v>0</v>
       </c>
       <c r="K122">
         <v>0</v>
@@ -5549,10 +5549,10 @@
         <v>129.0728207</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H123">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -5587,10 +5587,10 @@
         <v>129.0767442</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H124">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -5628,10 +5628,10 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I125">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J125">
         <v>0</v>
@@ -5663,10 +5663,10 @@
         <v>129.0957618</v>
       </c>
       <c r="G126">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H126">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -5701,10 +5701,10 @@
         <v>129.1033862</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H127">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -5742,10 +5742,10 @@
         <v>2</v>
       </c>
       <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
         <v>2</v>
-      </c>
-      <c r="I128">
-        <v>0</v>
       </c>
       <c r="J128">
         <v>2</v>
@@ -5777,16 +5777,16 @@
         <v>129.068216</v>
       </c>
       <c r="G129">
+        <v>2</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
         <v>5</v>
-      </c>
-      <c r="H129">
-        <v>2</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-      <c r="J129">
-        <v>0</v>
       </c>
       <c r="K129">
         <v>0</v>
@@ -5815,10 +5815,10 @@
         <v>129.0838307</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H130">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -5853,10 +5853,10 @@
         <v>129.1036509</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H131">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -5894,10 +5894,10 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I132">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -5929,16 +5929,16 @@
         <v>129.0623605</v>
       </c>
       <c r="G133">
+        <v>2</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
         <v>5</v>
-      </c>
-      <c r="H133">
-        <v>2</v>
-      </c>
-      <c r="I133">
-        <v>0</v>
-      </c>
-      <c r="J133">
-        <v>0</v>
       </c>
       <c r="K133">
         <v>0</v>
@@ -5970,10 +5970,10 @@
         <v>2</v>
       </c>
       <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
         <v>2</v>
-      </c>
-      <c r="I134">
-        <v>0</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -6008,10 +6008,10 @@
         <v>2</v>
       </c>
       <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
         <v>2</v>
-      </c>
-      <c r="I135">
-        <v>0</v>
       </c>
       <c r="J135">
         <v>2</v>
@@ -6046,10 +6046,10 @@
         <v>2</v>
       </c>
       <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
         <v>2</v>
-      </c>
-      <c r="I136">
-        <v>0</v>
       </c>
       <c r="J136">
         <v>2</v>
@@ -6084,10 +6084,10 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I137">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J137">
         <v>0</v>
@@ -6122,10 +6122,10 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I138">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J138">
         <v>0</v>
@@ -6157,16 +6157,16 @@
         <v>129.0506445</v>
       </c>
       <c r="G139">
+        <v>2</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
         <v>5</v>
-      </c>
-      <c r="H139">
-        <v>2</v>
-      </c>
-      <c r="I139">
-        <v>0</v>
-      </c>
-      <c r="J139">
-        <v>0</v>
       </c>
       <c r="K139">
         <v>0</v>
@@ -6195,13 +6195,13 @@
         <v>128.9861538</v>
       </c>
       <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
         <v>4</v>
-      </c>
-      <c r="H140">
-        <v>0</v>
-      </c>
-      <c r="I140">
-        <v>0</v>
       </c>
       <c r="J140">
         <v>4</v>
@@ -6233,16 +6233,16 @@
         <v>129.0233092</v>
       </c>
       <c r="G141">
+        <v>2</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
         <v>5</v>
-      </c>
-      <c r="H141">
-        <v>2</v>
-      </c>
-      <c r="I141">
-        <v>0</v>
-      </c>
-      <c r="J141">
-        <v>0</v>
       </c>
       <c r="K141">
         <v>0</v>
@@ -6271,10 +6271,10 @@
         <v>129.0210179</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H142">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -6309,10 +6309,10 @@
         <v>129.0957381</v>
       </c>
       <c r="G143">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H143">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I143">
         <v>0</v>
@@ -6347,10 +6347,10 @@
         <v>129.1015587</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H144">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -6385,10 +6385,10 @@
         <v>129.0309537</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H145">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -6423,10 +6423,10 @@
         <v>129.0322508</v>
       </c>
       <c r="G146">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H146">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -6461,16 +6461,16 @@
         <v>129.0632215</v>
       </c>
       <c r="G147">
+        <v>2</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
         <v>5</v>
-      </c>
-      <c r="H147">
-        <v>2</v>
-      </c>
-      <c r="I147">
-        <v>0</v>
-      </c>
-      <c r="J147">
-        <v>0</v>
       </c>
       <c r="K147">
         <v>0</v>
@@ -6499,13 +6499,13 @@
         <v>128.9793505</v>
       </c>
       <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
         <v>4</v>
-      </c>
-      <c r="H148">
-        <v>0</v>
-      </c>
-      <c r="I148">
-        <v>0</v>
       </c>
       <c r="J148">
         <v>4</v>
@@ -6537,16 +6537,16 @@
         <v>129.0101237</v>
       </c>
       <c r="G149">
+        <v>3</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
         <v>2</v>
-      </c>
-      <c r="H149">
-        <v>3</v>
-      </c>
-      <c r="I149">
-        <v>0</v>
-      </c>
-      <c r="J149">
-        <v>0</v>
       </c>
       <c r="K149">
         <v>0</v>
@@ -6575,16 +6575,16 @@
         <v>129.0372344</v>
       </c>
       <c r="G150">
+        <v>3</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
         <v>2</v>
-      </c>
-      <c r="H150">
-        <v>3</v>
-      </c>
-      <c r="I150">
-        <v>0</v>
-      </c>
-      <c r="J150">
-        <v>0</v>
       </c>
       <c r="K150">
         <v>0</v>
@@ -6613,16 +6613,16 @@
         <v>129.0380418</v>
       </c>
       <c r="G151">
+        <v>3</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
         <v>2</v>
-      </c>
-      <c r="H151">
-        <v>3</v>
-      </c>
-      <c r="I151">
-        <v>0</v>
-      </c>
-      <c r="J151">
-        <v>0</v>
       </c>
       <c r="K151">
         <v>0</v>
@@ -6651,16 +6651,16 @@
         <v>128.9990339</v>
       </c>
       <c r="G152">
+        <v>3</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
         <v>2</v>
-      </c>
-      <c r="H152">
-        <v>3</v>
-      </c>
-      <c r="I152">
-        <v>0</v>
-      </c>
-      <c r="J152">
-        <v>0</v>
       </c>
       <c r="K152">
         <v>0</v>
@@ -6692,13 +6692,13 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I153">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K153">
         <v>0</v>
@@ -6730,13 +6730,13 @@
         <v>1</v>
       </c>
       <c r="H154">
+        <v>3</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
         <v>1</v>
-      </c>
-      <c r="I154">
-        <v>3</v>
-      </c>
-      <c r="J154">
-        <v>0</v>
       </c>
       <c r="K154">
         <v>0</v>
@@ -6768,13 +6768,13 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J155">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K155">
         <v>0</v>
@@ -6803,16 +6803,16 @@
         <v>128.9867672</v>
       </c>
       <c r="G156">
+        <v>2</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
         <v>4</v>
-      </c>
-      <c r="H156">
-        <v>2</v>
-      </c>
-      <c r="I156">
-        <v>0</v>
-      </c>
-      <c r="J156">
-        <v>0</v>
       </c>
       <c r="K156">
         <v>0</v>
@@ -6841,16 +6841,16 @@
         <v>128.9656782</v>
       </c>
       <c r="G157">
+        <v>2</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
         <v>4</v>
-      </c>
-      <c r="H157">
-        <v>2</v>
-      </c>
-      <c r="I157">
-        <v>0</v>
-      </c>
-      <c r="J157">
-        <v>0</v>
       </c>
       <c r="K157">
         <v>0</v>
@@ -6879,16 +6879,16 @@
         <v>128.9659117</v>
       </c>
       <c r="G158">
+        <v>2</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
         <v>4</v>
-      </c>
-      <c r="H158">
-        <v>2</v>
-      </c>
-      <c r="I158">
-        <v>0</v>
-      </c>
-      <c r="J158">
-        <v>0</v>
       </c>
       <c r="K158">
         <v>0</v>
@@ -6917,16 +6917,16 @@
         <v>128.9731903</v>
       </c>
       <c r="G159">
+        <v>2</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
         <v>4</v>
-      </c>
-      <c r="H159">
-        <v>2</v>
-      </c>
-      <c r="I159">
-        <v>0</v>
-      </c>
-      <c r="J159">
-        <v>0</v>
       </c>
       <c r="K159">
         <v>0</v>
@@ -6955,16 +6955,16 @@
         <v>129.050072</v>
       </c>
       <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>2</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
         <v>5</v>
-      </c>
-      <c r="H160">
-        <v>0</v>
-      </c>
-      <c r="I160">
-        <v>2</v>
-      </c>
-      <c r="J160">
-        <v>0</v>
       </c>
       <c r="K160">
         <v>0</v>
@@ -6993,16 +6993,16 @@
         <v>128.9867389</v>
       </c>
       <c r="G161">
+        <v>2</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
         <v>4</v>
-      </c>
-      <c r="H161">
-        <v>2</v>
-      </c>
-      <c r="I161">
-        <v>0</v>
-      </c>
-      <c r="J161">
-        <v>0</v>
       </c>
       <c r="K161">
         <v>0</v>
@@ -7031,16 +7031,16 @@
         <v>128.9671227</v>
       </c>
       <c r="G162">
+        <v>2</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
         <v>4</v>
-      </c>
-      <c r="H162">
-        <v>2</v>
-      </c>
-      <c r="I162">
-        <v>0</v>
-      </c>
-      <c r="J162">
-        <v>0</v>
       </c>
       <c r="K162">
         <v>0</v>
@@ -7069,16 +7069,16 @@
         <v>128.9796673</v>
       </c>
       <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>3</v>
+      </c>
+      <c r="J163">
         <v>4</v>
-      </c>
-      <c r="H163">
-        <v>0</v>
-      </c>
-      <c r="I163">
-        <v>0</v>
-      </c>
-      <c r="J163">
-        <v>3</v>
       </c>
       <c r="K163">
         <v>0</v>
@@ -7107,16 +7107,16 @@
         <v>128.9879107</v>
       </c>
       <c r="G164">
+        <v>3</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
         <v>1</v>
-      </c>
-      <c r="H164">
-        <v>3</v>
-      </c>
-      <c r="I164">
-        <v>0</v>
-      </c>
-      <c r="J164">
-        <v>0</v>
       </c>
       <c r="K164">
         <v>0</v>
@@ -7145,16 +7145,16 @@
         <v>128.9711766</v>
       </c>
       <c r="G165">
+        <v>3</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
         <v>1</v>
-      </c>
-      <c r="H165">
-        <v>3</v>
-      </c>
-      <c r="I165">
-        <v>0</v>
-      </c>
-      <c r="J165">
-        <v>0</v>
       </c>
       <c r="K165">
         <v>0</v>
@@ -7183,16 +7183,16 @@
         <v>128.9898679</v>
       </c>
       <c r="G166">
+        <v>3</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
         <v>1</v>
-      </c>
-      <c r="H166">
-        <v>3</v>
-      </c>
-      <c r="I166">
-        <v>0</v>
-      </c>
-      <c r="J166">
-        <v>0</v>
       </c>
       <c r="K166">
         <v>0</v>
@@ -7221,16 +7221,16 @@
         <v>128.990975</v>
       </c>
       <c r="G167">
+        <v>3</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
         <v>1</v>
-      </c>
-      <c r="H167">
-        <v>3</v>
-      </c>
-      <c r="I167">
-        <v>0</v>
-      </c>
-      <c r="J167">
-        <v>0</v>
       </c>
       <c r="K167">
         <v>0</v>
@@ -7259,16 +7259,16 @@
         <v>128.9713419</v>
       </c>
       <c r="G168">
+        <v>3</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
         <v>1</v>
-      </c>
-      <c r="H168">
-        <v>3</v>
-      </c>
-      <c r="I168">
-        <v>0</v>
-      </c>
-      <c r="J168">
-        <v>0</v>
       </c>
       <c r="K168">
         <v>0</v>
@@ -7297,16 +7297,16 @@
         <v>128.9830798</v>
       </c>
       <c r="G169">
+        <v>3</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
         <v>1</v>
-      </c>
-      <c r="H169">
-        <v>3</v>
-      </c>
-      <c r="I169">
-        <v>0</v>
-      </c>
-      <c r="J169">
-        <v>0</v>
       </c>
       <c r="K169">
         <v>0</v>
@@ -7338,10 +7338,10 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I170">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J170">
         <v>0</v>
@@ -7373,16 +7373,16 @@
         <v>129.1487738</v>
       </c>
       <c r="G171">
+        <v>2</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
         <v>3</v>
-      </c>
-      <c r="H171">
-        <v>2</v>
-      </c>
-      <c r="I171">
-        <v>0</v>
-      </c>
-      <c r="J171">
-        <v>0</v>
       </c>
       <c r="K171">
         <v>0</v>
@@ -7411,16 +7411,16 @@
         <v>129.1485607</v>
       </c>
       <c r="G172">
+        <v>2</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
         <v>3</v>
-      </c>
-      <c r="H172">
-        <v>2</v>
-      </c>
-      <c r="I172">
-        <v>0</v>
-      </c>
-      <c r="J172">
-        <v>0</v>
       </c>
       <c r="K172">
         <v>0</v>
@@ -7449,16 +7449,16 @@
         <v>129.1664443</v>
       </c>
       <c r="G173">
+        <v>2</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
         <v>3</v>
-      </c>
-      <c r="H173">
-        <v>2</v>
-      </c>
-      <c r="I173">
-        <v>0</v>
-      </c>
-      <c r="J173">
-        <v>0</v>
       </c>
       <c r="K173">
         <v>0</v>
@@ -7490,10 +7490,10 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I174">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J174">
         <v>0</v>
@@ -7525,16 +7525,16 @@
         <v>129.0151224</v>
       </c>
       <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>4</v>
+      </c>
+      <c r="J175">
         <v>2</v>
-      </c>
-      <c r="H175">
-        <v>0</v>
-      </c>
-      <c r="I175">
-        <v>0</v>
-      </c>
-      <c r="J175">
-        <v>4</v>
       </c>
       <c r="K175">
         <v>0</v>
@@ -7563,16 +7563,16 @@
         <v>129.0102791</v>
       </c>
       <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>3</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
         <v>2</v>
-      </c>
-      <c r="H176">
-        <v>0</v>
-      </c>
-      <c r="I176">
-        <v>3</v>
-      </c>
-      <c r="J176">
-        <v>0</v>
       </c>
       <c r="K176">
         <v>0</v>
@@ -7601,16 +7601,16 @@
         <v>129.0148255</v>
       </c>
       <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>4</v>
+      </c>
+      <c r="J177">
         <v>2</v>
-      </c>
-      <c r="H177">
-        <v>0</v>
-      </c>
-      <c r="I177">
-        <v>0</v>
-      </c>
-      <c r="J177">
-        <v>4</v>
       </c>
       <c r="K177">
         <v>0</v>
@@ -7639,16 +7639,16 @@
         <v>129.1646121</v>
       </c>
       <c r="G178">
+        <v>2</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
         <v>3</v>
-      </c>
-      <c r="H178">
-        <v>2</v>
-      </c>
-      <c r="I178">
-        <v>0</v>
-      </c>
-      <c r="J178">
-        <v>0</v>
       </c>
       <c r="K178">
         <v>0</v>
@@ -7677,10 +7677,10 @@
         <v>129.0853922</v>
       </c>
       <c r="G179">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -7715,10 +7715,10 @@
         <v>129.0798138</v>
       </c>
       <c r="G180">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180">
         <v>0</v>
@@ -7753,10 +7753,10 @@
         <v>129.0204103</v>
       </c>
       <c r="G181">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H181">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181">
         <v>0</v>
@@ -7791,10 +7791,10 @@
         <v>129.0221269</v>
       </c>
       <c r="G182">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H182">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182">
         <v>0</v>
@@ -7829,10 +7829,10 @@
         <v>129.030767</v>
       </c>
       <c r="G183">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H183">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183">
         <v>0</v>
@@ -7867,10 +7867,10 @@
         <v>129.0325367</v>
       </c>
       <c r="G184">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H184">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184">
         <v>0</v>
@@ -7905,10 +7905,10 @@
         <v>129.0952417</v>
       </c>
       <c r="G185">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H185">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185">
         <v>0</v>
@@ -7943,16 +7943,16 @@
         <v>129.0483454</v>
       </c>
       <c r="G186">
+        <v>1</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
         <v>5</v>
-      </c>
-      <c r="H186">
-        <v>1</v>
-      </c>
-      <c r="I186">
-        <v>0</v>
-      </c>
-      <c r="J186">
-        <v>0</v>
       </c>
       <c r="K186">
         <v>0</v>
@@ -7981,10 +7981,10 @@
         <v>129.1121425</v>
       </c>
       <c r="G187">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H187">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187">
         <v>0</v>
@@ -8019,16 +8019,16 @@
         <v>129.0384898</v>
       </c>
       <c r="G188">
+        <v>1</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
         <v>5</v>
-      </c>
-      <c r="H188">
-        <v>1</v>
-      </c>
-      <c r="I188">
-        <v>0</v>
-      </c>
-      <c r="J188">
-        <v>0</v>
       </c>
       <c r="K188">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>129.0836524</v>
       </c>
       <c r="G189">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H189">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189">
         <v>0</v>
@@ -8095,16 +8095,16 @@
         <v>129.0543725</v>
       </c>
       <c r="G190">
+        <v>1</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
         <v>5</v>
-      </c>
-      <c r="H190">
-        <v>1</v>
-      </c>
-      <c r="I190">
-        <v>0</v>
-      </c>
-      <c r="J190">
-        <v>0</v>
       </c>
       <c r="K190">
         <v>0</v>
@@ -8133,16 +8133,16 @@
         <v>129.0699592</v>
       </c>
       <c r="G191">
+        <v>1</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
         <v>5</v>
-      </c>
-      <c r="H191">
-        <v>1</v>
-      </c>
-      <c r="I191">
-        <v>0</v>
-      </c>
-      <c r="J191">
-        <v>0</v>
       </c>
       <c r="K191">
         <v>0</v>
@@ -8171,10 +8171,10 @@
         <v>129.1071317</v>
       </c>
       <c r="G192">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H192">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192">
         <v>0</v>
@@ -8209,10 +8209,10 @@
         <v>129.0712406</v>
       </c>
       <c r="G193">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H193">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193">
         <v>0</v>
@@ -8247,10 +8247,10 @@
         <v>129.0928928</v>
       </c>
       <c r="G194">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H194">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194">
         <v>0</v>
@@ -8285,10 +8285,10 @@
         <v>129.0304882</v>
       </c>
       <c r="G195">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H195">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195">
         <v>0</v>
@@ -8323,10 +8323,10 @@
         <v>129.0702704</v>
       </c>
       <c r="G196">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H196">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196">
         <v>0</v>
@@ -8361,16 +8361,16 @@
         <v>129.0342437</v>
       </c>
       <c r="G197">
+        <v>1</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
         <v>5</v>
-      </c>
-      <c r="H197">
-        <v>1</v>
-      </c>
-      <c r="I197">
-        <v>0</v>
-      </c>
-      <c r="J197">
-        <v>0</v>
       </c>
       <c r="K197">
         <v>0</v>
@@ -8399,10 +8399,10 @@
         <v>129.1128845</v>
       </c>
       <c r="G198">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H198">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198">
         <v>0</v>
@@ -8437,10 +8437,10 @@
         <v>129.1073248</v>
       </c>
       <c r="G199">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H199">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199">
         <v>0</v>
@@ -8475,10 +8475,10 @@
         <v>129.0465121</v>
       </c>
       <c r="G200">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H200">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200">
         <v>0</v>
@@ -8513,10 +8513,10 @@
         <v>129.0713107</v>
       </c>
       <c r="G201">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H201">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201">
         <v>0</v>
@@ -8551,10 +8551,10 @@
         <v>129.0750275</v>
       </c>
       <c r="G202">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H202">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202">
         <v>0</v>
@@ -8592,13 +8592,13 @@
         <v>2</v>
       </c>
       <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
         <v>2</v>
-      </c>
-      <c r="I203">
-        <v>0</v>
-      </c>
-      <c r="J203">
-        <v>0</v>
       </c>
       <c r="K203">
         <v>0</v>
@@ -8627,13 +8627,13 @@
         <v>129.0675767</v>
       </c>
       <c r="G204">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204">
         <v>0</v>
@@ -8665,16 +8665,16 @@
         <v>129.0411366</v>
       </c>
       <c r="G205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J205">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K205">
         <v>0</v>
@@ -8703,16 +8703,16 @@
         <v>128.9934291</v>
       </c>
       <c r="G206">
+        <v>0</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206">
+        <v>2</v>
+      </c>
+      <c r="J206">
         <v>4</v>
-      </c>
-      <c r="H206">
-        <v>0</v>
-      </c>
-      <c r="I206">
-        <v>0</v>
-      </c>
-      <c r="J206">
-        <v>2</v>
       </c>
       <c r="K206">
         <v>0</v>
@@ -8741,16 +8741,16 @@
         <v>129.0162919</v>
       </c>
       <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <v>1</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
         <v>5</v>
-      </c>
-      <c r="H207">
-        <v>0</v>
-      </c>
-      <c r="I207">
-        <v>1</v>
-      </c>
-      <c r="J207">
-        <v>0</v>
       </c>
       <c r="K207">
         <v>0</v>
@@ -8779,16 +8779,16 @@
         <v>129.0590191</v>
       </c>
       <c r="G208">
+        <v>0</v>
+      </c>
+      <c r="H208">
+        <v>1</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
         <v>5</v>
-      </c>
-      <c r="H208">
-        <v>0</v>
-      </c>
-      <c r="I208">
-        <v>1</v>
-      </c>
-      <c r="J208">
-        <v>0</v>
       </c>
       <c r="K208">
         <v>0</v>
@@ -8817,16 +8817,16 @@
         <v>128.9931171</v>
       </c>
       <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209">
+        <v>2</v>
+      </c>
+      <c r="J209">
         <v>4</v>
-      </c>
-      <c r="H209">
-        <v>0</v>
-      </c>
-      <c r="I209">
-        <v>0</v>
-      </c>
-      <c r="J209">
-        <v>2</v>
       </c>
       <c r="K209">
         <v>0</v>
@@ -8855,16 +8855,16 @@
         <v>129.0387451</v>
       </c>
       <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210">
+        <v>1</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
         <v>5</v>
-      </c>
-      <c r="H210">
-        <v>0</v>
-      </c>
-      <c r="I210">
-        <v>1</v>
-      </c>
-      <c r="J210">
-        <v>0</v>
       </c>
       <c r="K210">
         <v>0</v>
@@ -8893,16 +8893,16 @@
         <v>129.0142111</v>
       </c>
       <c r="G211">
+        <v>0</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211">
+        <v>3</v>
+      </c>
+      <c r="J211">
         <v>2</v>
-      </c>
-      <c r="H211">
-        <v>0</v>
-      </c>
-      <c r="I211">
-        <v>0</v>
-      </c>
-      <c r="J211">
-        <v>3</v>
       </c>
       <c r="K211">
         <v>0</v>
@@ -8931,16 +8931,16 @@
         <v>128.9638513</v>
       </c>
       <c r="G212">
+        <v>1</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
         <v>4</v>
-      </c>
-      <c r="H212">
-        <v>1</v>
-      </c>
-      <c r="I212">
-        <v>0</v>
-      </c>
-      <c r="J212">
-        <v>0</v>
       </c>
       <c r="K212">
         <v>0</v>
@@ -8969,16 +8969,16 @@
         <v>128.9472931</v>
       </c>
       <c r="G213">
+        <v>1</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
         <v>4</v>
-      </c>
-      <c r="H213">
-        <v>1</v>
-      </c>
-      <c r="I213">
-        <v>0</v>
-      </c>
-      <c r="J213">
-        <v>0</v>
       </c>
       <c r="K213">
         <v>0</v>
@@ -9007,13 +9007,13 @@
         <v>129.0605792</v>
       </c>
       <c r="G214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I214">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J214">
         <v>0</v>
@@ -9045,16 +9045,16 @@
         <v>128.9777959</v>
       </c>
       <c r="G215">
+        <v>1</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
         <v>4</v>
-      </c>
-      <c r="H215">
-        <v>1</v>
-      </c>
-      <c r="I215">
-        <v>0</v>
-      </c>
-      <c r="J215">
-        <v>0</v>
       </c>
       <c r="K215">
         <v>0</v>
@@ -9083,16 +9083,16 @@
         <v>128.9653082</v>
       </c>
       <c r="G216">
+        <v>1</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
         <v>4</v>
-      </c>
-      <c r="H216">
-        <v>1</v>
-      </c>
-      <c r="I216">
-        <v>0</v>
-      </c>
-      <c r="J216">
-        <v>0</v>
       </c>
       <c r="K216">
         <v>0</v>
@@ -9124,10 +9124,10 @@
         <v>0</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I217">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J217">
         <v>0</v>
@@ -9159,16 +9159,16 @@
         <v>128.9841008</v>
       </c>
       <c r="G218">
+        <v>2</v>
+      </c>
+      <c r="H218">
+        <v>0</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
         <v>1</v>
-      </c>
-      <c r="H218">
-        <v>2</v>
-      </c>
-      <c r="I218">
-        <v>0</v>
-      </c>
-      <c r="J218">
-        <v>0</v>
       </c>
       <c r="K218">
         <v>0</v>
@@ -9203,10 +9203,10 @@
         <v>0</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J219">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K219">
         <v>0</v>
@@ -9235,16 +9235,16 @@
         <v>128.9831579</v>
       </c>
       <c r="G220">
+        <v>2</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
         <v>1</v>
-      </c>
-      <c r="H220">
-        <v>2</v>
-      </c>
-      <c r="I220">
-        <v>0</v>
-      </c>
-      <c r="J220">
-        <v>0</v>
       </c>
       <c r="K220">
         <v>0</v>
@@ -9273,16 +9273,16 @@
         <v>128.9894216</v>
       </c>
       <c r="G221">
+        <v>2</v>
+      </c>
+      <c r="H221">
+        <v>0</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
         <v>1</v>
-      </c>
-      <c r="H221">
-        <v>2</v>
-      </c>
-      <c r="I221">
-        <v>0</v>
-      </c>
-      <c r="J221">
-        <v>0</v>
       </c>
       <c r="K221">
         <v>0</v>
@@ -9311,16 +9311,16 @@
         <v>129.1475619</v>
       </c>
       <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>2</v>
+      </c>
+      <c r="J222">
         <v>3</v>
-      </c>
-      <c r="H222">
-        <v>0</v>
-      </c>
-      <c r="I222">
-        <v>0</v>
-      </c>
-      <c r="J222">
-        <v>2</v>
       </c>
       <c r="K222">
         <v>0</v>
@@ -9349,16 +9349,16 @@
         <v>128.9857794</v>
       </c>
       <c r="G223">
+        <v>2</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
         <v>1</v>
-      </c>
-      <c r="H223">
-        <v>2</v>
-      </c>
-      <c r="I223">
-        <v>0</v>
-      </c>
-      <c r="J223">
-        <v>0</v>
       </c>
       <c r="K223">
         <v>0</v>
@@ -9387,16 +9387,16 @@
         <v>128.9919245</v>
       </c>
       <c r="G224">
+        <v>2</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
         <v>1</v>
-      </c>
-      <c r="H224">
-        <v>2</v>
-      </c>
-      <c r="I224">
-        <v>0</v>
-      </c>
-      <c r="J224">
-        <v>0</v>
       </c>
       <c r="K224">
         <v>0</v>
@@ -9428,10 +9428,10 @@
         <v>0</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I225">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J225">
         <v>0</v>
@@ -9463,16 +9463,16 @@
         <v>128.9764963</v>
       </c>
       <c r="G226">
+        <v>2</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
         <v>1</v>
-      </c>
-      <c r="H226">
-        <v>2</v>
-      </c>
-      <c r="I226">
-        <v>0</v>
-      </c>
-      <c r="J226">
-        <v>0</v>
       </c>
       <c r="K226">
         <v>0</v>
@@ -9501,16 +9501,16 @@
         <v>129.0088707</v>
       </c>
       <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>2</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
         <v>1</v>
-      </c>
-      <c r="H227">
-        <v>0</v>
-      </c>
-      <c r="I227">
-        <v>2</v>
-      </c>
-      <c r="J227">
-        <v>0</v>
       </c>
       <c r="K227">
         <v>2</v>
@@ -9539,16 +9539,16 @@
         <v>129.1668112</v>
       </c>
       <c r="G228">
+        <v>1</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
         <v>3</v>
-      </c>
-      <c r="H228">
-        <v>1</v>
-      </c>
-      <c r="I228">
-        <v>0</v>
-      </c>
-      <c r="J228">
-        <v>0</v>
       </c>
       <c r="K228">
         <v>0</v>
@@ -9577,16 +9577,16 @@
         <v>129.0366574</v>
       </c>
       <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
         <v>5</v>
-      </c>
-      <c r="H229">
-        <v>0</v>
-      </c>
-      <c r="I229">
-        <v>0</v>
-      </c>
-      <c r="J229">
-        <v>0</v>
       </c>
       <c r="K229">
         <v>1</v>
